--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/BLJ-Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/BLJ-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1651EB-AF49-9A4C-82EC-60D9B4647210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA764DE-F373-164D-A257-A409B48E050E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1544,6 +1544,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1574,22 +1590,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1765,13 +1765,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2278,8 +2278,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2598,88 +2598,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="95"/>
+      <c r="D7" s="99"/>
       <c r="E7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="96" t="s">
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="96" t="s">
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="96"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="96"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="98" t="s">
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="AC7" s="96"/>
-      <c r="AD7" s="96"/>
-      <c r="AE7" s="96"/>
-      <c r="AF7" s="96"/>
-      <c r="AG7" s="96"/>
-      <c r="AH7" s="97"/>
-      <c r="AI7" s="96" t="s">
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="100"/>
+      <c r="AF7" s="100"/>
+      <c r="AG7" s="100"/>
+      <c r="AH7" s="101"/>
+      <c r="AI7" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="AJ7" s="96"/>
-      <c r="AK7" s="96"/>
-      <c r="AL7" s="96"/>
-      <c r="AM7" s="96"/>
-      <c r="AN7" s="96"/>
-      <c r="AO7" s="97"/>
-      <c r="AP7" s="98" t="s">
+      <c r="AJ7" s="100"/>
+      <c r="AK7" s="100"/>
+      <c r="AL7" s="100"/>
+      <c r="AM7" s="100"/>
+      <c r="AN7" s="100"/>
+      <c r="AO7" s="101"/>
+      <c r="AP7" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="AQ7" s="96"/>
-      <c r="AR7" s="96"/>
-      <c r="AS7" s="96"/>
-      <c r="AT7" s="96"/>
-      <c r="AU7" s="96"/>
-      <c r="AV7" s="97"/>
-      <c r="AW7" s="96" t="s">
+      <c r="AQ7" s="100"/>
+      <c r="AR7" s="100"/>
+      <c r="AS7" s="100"/>
+      <c r="AT7" s="100"/>
+      <c r="AU7" s="100"/>
+      <c r="AV7" s="101"/>
+      <c r="AW7" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="AX7" s="96"/>
-      <c r="AY7" s="96"/>
-      <c r="AZ7" s="96"/>
-      <c r="BA7" s="96"/>
-      <c r="BB7" s="96"/>
-      <c r="BC7" s="97"/>
-      <c r="BD7" s="98" t="s">
+      <c r="AX7" s="100"/>
+      <c r="AY7" s="100"/>
+      <c r="AZ7" s="100"/>
+      <c r="BA7" s="100"/>
+      <c r="BB7" s="100"/>
+      <c r="BC7" s="101"/>
+      <c r="BD7" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="BE7" s="96"/>
-      <c r="BF7" s="96"/>
-      <c r="BG7" s="96"/>
-      <c r="BH7" s="96"/>
-      <c r="BI7" s="96"/>
-      <c r="BJ7" s="99"/>
+      <c r="BE7" s="100"/>
+      <c r="BF7" s="100"/>
+      <c r="BG7" s="100"/>
+      <c r="BH7" s="100"/>
+      <c r="BI7" s="100"/>
+      <c r="BJ7" s="103"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="D9" s="41">
         <f>SUM(D10:D13)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="30"/>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="D11" s="80">
         <f>SUM(G11:BJ11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="49">
         <v>1</v>
@@ -3050,7 +3050,9 @@
       <c r="H11" s="59"/>
       <c r="I11" s="60"/>
       <c r="J11" s="60"/>
-      <c r="K11" s="105"/>
+      <c r="K11" s="96">
+        <v>1</v>
+      </c>
       <c r="L11" s="61"/>
       <c r="M11" s="57" t="s">
         <v>5</v>
@@ -3119,7 +3121,7 @@
       </c>
       <c r="D12" s="80">
         <f t="shared" ref="D12:D13" si="0">SUM(G12:BJ12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="49">
         <v>1</v>
@@ -3129,21 +3131,23 @@
       <c r="H12" s="59"/>
       <c r="I12" s="60"/>
       <c r="J12" s="60"/>
-      <c r="K12" s="106"/>
+      <c r="K12" s="97">
+        <v>1</v>
+      </c>
       <c r="L12" s="56"/>
       <c r="M12" s="57"/>
       <c r="N12" s="58"/>
       <c r="O12" s="59"/>
       <c r="P12" s="59"/>
       <c r="Q12" s="60"/>
-      <c r="R12" s="106"/>
+      <c r="R12" s="97"/>
       <c r="S12" s="56"/>
       <c r="T12" s="57"/>
       <c r="U12" s="58"/>
       <c r="V12" s="59"/>
       <c r="W12" s="60"/>
       <c r="X12" s="60"/>
-      <c r="Y12" s="106"/>
+      <c r="Y12" s="97"/>
       <c r="Z12" s="56"/>
       <c r="AA12" s="57"/>
       <c r="AB12" s="58"/>
@@ -3353,7 +3357,7 @@
       <c r="H15" s="53"/>
       <c r="I15" s="54"/>
       <c r="J15" s="54"/>
-      <c r="K15" s="104">
+      <c r="K15" s="95">
         <v>1.5</v>
       </c>
       <c r="L15" s="56"/>
@@ -3561,7 +3565,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3634,7 +3638,7 @@
       </c>
       <c r="D19" s="80">
         <f t="shared" ref="D19:D33" si="1">SUM(G19:BJ19)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="50"/>
@@ -3648,7 +3652,9 @@
       <c r="N19" s="52"/>
       <c r="O19" s="53"/>
       <c r="P19" s="87"/>
-      <c r="Q19" s="104"/>
+      <c r="Q19" s="95">
+        <v>0.5</v>
+      </c>
       <c r="R19" s="55"/>
       <c r="S19" s="56"/>
       <c r="T19" s="57"/>
@@ -3707,7 +3713,7 @@
       </c>
       <c r="D20" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
@@ -3715,13 +3721,17 @@
       <c r="H20" s="59"/>
       <c r="I20" s="54"/>
       <c r="J20" s="54"/>
-      <c r="K20" s="106"/>
+      <c r="K20" s="97">
+        <v>4</v>
+      </c>
       <c r="L20" s="56"/>
       <c r="M20" s="57"/>
       <c r="N20" s="58"/>
       <c r="O20" s="59"/>
       <c r="P20" s="87"/>
-      <c r="Q20" s="104"/>
+      <c r="Q20" s="95">
+        <v>2.4</v>
+      </c>
       <c r="R20" s="55"/>
       <c r="S20" s="56"/>
       <c r="T20" s="57"/>
@@ -3794,7 +3804,9 @@
       <c r="N21" s="58"/>
       <c r="O21" s="59"/>
       <c r="P21" s="87"/>
-      <c r="Q21" s="104"/>
+      <c r="Q21" s="95">
+        <v>0</v>
+      </c>
       <c r="R21" s="55"/>
       <c r="S21" s="56"/>
       <c r="T21" s="57"/>
@@ -3853,7 +3865,7 @@
       </c>
       <c r="D22" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -3867,7 +3879,9 @@
       <c r="N22" s="58"/>
       <c r="O22" s="59"/>
       <c r="P22" s="87"/>
-      <c r="Q22" s="104"/>
+      <c r="Q22" s="95">
+        <v>0.2</v>
+      </c>
       <c r="R22" s="55"/>
       <c r="S22" s="56"/>
       <c r="T22" s="57"/>
@@ -3926,7 +3940,7 @@
       </c>
       <c r="D23" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E23" s="49"/>
       <c r="F23" s="50"/>
@@ -3940,7 +3954,9 @@
       <c r="N23" s="58"/>
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
-      <c r="Q23" s="107"/>
+      <c r="Q23" s="98">
+        <v>0.2</v>
+      </c>
       <c r="R23" s="55"/>
       <c r="S23" s="56"/>
       <c r="T23" s="57"/>
@@ -3999,7 +4015,7 @@
       </c>
       <c r="D24" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="50"/>
@@ -4013,7 +4029,9 @@
       <c r="N24" s="58"/>
       <c r="O24" s="59"/>
       <c r="P24" s="87"/>
-      <c r="Q24" s="104"/>
+      <c r="Q24" s="95">
+        <v>0.2</v>
+      </c>
       <c r="R24" s="55"/>
       <c r="S24" s="56"/>
       <c r="T24" s="57"/>
@@ -4072,7 +4090,7 @@
       </c>
       <c r="D25" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -4086,13 +4104,15 @@
       <c r="N25" s="58"/>
       <c r="O25" s="59"/>
       <c r="P25" s="87"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="106"/>
+      <c r="Q25" s="95">
+        <v>5</v>
+      </c>
+      <c r="R25" s="97"/>
       <c r="S25" s="56"/>
       <c r="T25" s="57"/>
       <c r="U25" s="58"/>
       <c r="V25" s="59"/>
-      <c r="W25" s="104"/>
+      <c r="W25" s="95"/>
       <c r="X25" s="54"/>
       <c r="Y25" s="55"/>
       <c r="Z25" s="56"/>
@@ -4165,7 +4185,7 @@
       <c r="T26" s="57"/>
       <c r="U26" s="58"/>
       <c r="V26" s="59"/>
-      <c r="W26" s="104"/>
+      <c r="W26" s="95"/>
       <c r="X26" s="54"/>
       <c r="Y26" s="55"/>
       <c r="Z26" s="56"/>
@@ -4238,7 +4258,7 @@
       <c r="T27" s="57"/>
       <c r="U27" s="58"/>
       <c r="V27" s="59"/>
-      <c r="W27" s="104"/>
+      <c r="W27" s="95"/>
       <c r="X27" s="54"/>
       <c r="Y27" s="55"/>
       <c r="Z27" s="56"/>
@@ -4311,7 +4331,7 @@
       <c r="T28" s="57"/>
       <c r="U28" s="58"/>
       <c r="V28" s="59"/>
-      <c r="W28" s="104"/>
+      <c r="W28" s="95"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55"/>
       <c r="Z28" s="56"/>
@@ -4384,9 +4404,9 @@
       <c r="T29" s="57"/>
       <c r="U29" s="68"/>
       <c r="V29" s="69"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="104"/>
-      <c r="Y29" s="106"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="97"/>
       <c r="Z29" s="56"/>
       <c r="AA29" s="57"/>
       <c r="AB29" s="68"/>
@@ -5498,7 +5518,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>1.5</v>
+        <v>16</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5520,7 +5540,7 @@
       </c>
       <c r="K45" s="38">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="L45" s="38">
         <f t="shared" si="4"/>
@@ -5544,7 +5564,7 @@
       </c>
       <c r="Q45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="R45" s="38">
         <f t="shared" si="4"/>
@@ -5773,10 +5793,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="103"/>
+      <c r="B2" s="107"/>
       <c r="C2" s="76" t="s">
         <v>13</v>
       </c>
@@ -5785,28 +5805,28 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="str">
+      <c r="A3" s="104" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="105"/>
       <c r="C3" s="77">
         <f>Zeitplanung!C9</f>
         <v>6</v>
       </c>
       <c r="D3" s="77">
         <f>Zeitplanung!D9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="79"/>
       <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="str">
+      <c r="A4" s="104" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="101"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="77">
         <f>Zeitplanung!C14</f>
         <v>1.5</v>
@@ -5819,28 +5839,28 @@
       <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="str">
+      <c r="A5" s="104" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="77">
         <f>Zeitplanung!C18</f>
         <v>40.5</v>
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="str">
+      <c r="A6" s="104" t="str">
         <f>Zeitplanung!B34</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="101"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="77">
         <f>Zeitplanung!C34</f>
         <v>0</v>
@@ -5852,11 +5872,11 @@
       <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="str">
+      <c r="A7" s="104" t="str">
         <f>Zeitplanung!B38</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="101"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="77">
         <f>Zeitplanung!C38</f>
         <v>0</v>
@@ -5868,11 +5888,11 @@
       <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="str">
+      <c r="A8" s="104" t="str">
         <f>Zeitplanung!B41</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="101"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="77">
         <f>Zeitplanung!C41</f>
         <v>0</v>
